--- a/cache_data/out/loss.xlsx
+++ b/cache_data/out/loss.xlsx
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2678056489385847</v>
+        <v>0.2774168768677786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04573844010765488</v>
+        <v>0.05126839312347206</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05389720606379095</v>
+        <v>0.05709336356224621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04352119323369619</v>
+        <v>0.05042602967571568</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05231867196299717</v>
+        <v>0.05515595308125417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04267198491740871</v>
+        <v>0.0474972926281594</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0507333954352313</v>
+        <v>0.05200996523710561</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04029798829877699</v>
+        <v>0.04563616014815666</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04890316917264382</v>
+        <v>0.04927663893370426</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03880114732561885</v>
+        <v>0.04313648391414333</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04702246680291564</v>
+        <v>0.04695248305133828</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03819712191014676</v>
+        <v>0.04049125797039754</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0461097226907522</v>
+        <v>0.04464715642891907</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03724219267432754</v>
+        <v>0.03785198363097939</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04534751648095774</v>
+        <v>0.04248090323998296</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03684256447328103</v>
+        <v>0.03807752519040494</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0444909820378756</v>
+        <v>0.04093488549734808</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03646094654057477</v>
+        <v>0.03725909461846223</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0434625981114224</v>
+        <v>0.03978083531614932</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03558274942475396</v>
+        <v>0.03592315880027977</v>
       </c>
     </row>
   </sheetData>

--- a/cache_data/out/loss.xlsx
+++ b/cache_data/out/loss.xlsx
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2774168768677786</v>
+        <v>0.2173775426529033</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05126839312347206</v>
+        <v>0.04771007798813485</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05709336356224621</v>
+        <v>0.05500560116130684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05042602967571568</v>
+        <v>0.04599036880441614</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05515595308125417</v>
+        <v>0.051791110787466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0474972926281594</v>
+        <v>0.04479452967643738</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05200996523710561</v>
+        <v>0.04989528164831727</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04563616014815666</v>
+        <v>0.04335009568446391</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04927663893370426</v>
+        <v>0.04738931354541821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04313648391414333</v>
+        <v>0.04159519801268707</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04695248305133828</v>
+        <v>0.0458871822779322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04049125797039754</v>
+        <v>0.03992014720633223</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.04464715642891907</v>
+        <v>0.04397297552672685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03785198363097939</v>
+        <v>0.0393337784586726</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.04248090323998296</v>
+        <v>0.04281012093303995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03807752519040494</v>
+        <v>0.03862135152559023</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.04093488549734808</v>
+        <v>0.04159017580920179</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03725909461846223</v>
+        <v>0.03795783986916413</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.03978083531614932</v>
+        <v>0.04052312766722422</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03592315880027977</v>
+        <v>0.03743095494605399</v>
       </c>
     </row>
   </sheetData>
